--- a/Code/Results/Cases/Case_0_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.463181671187338</v>
+        <v>11.20414814319263</v>
       </c>
       <c r="D2">
-        <v>3.008901135153351</v>
+        <v>8.023658105252926</v>
       </c>
       <c r="E2">
-        <v>9.950810356417417</v>
+        <v>12.79246775424638</v>
       </c>
       <c r="F2">
-        <v>12.30792280365498</v>
+        <v>31.14583031427596</v>
       </c>
       <c r="G2">
-        <v>19.11329357998542</v>
+        <v>33.31539252836562</v>
       </c>
       <c r="H2">
-        <v>6.432634407844475</v>
+        <v>15.52691948833641</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.931941508651821</v>
+        <v>9.761376319509955</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.711710531082387</v>
+        <v>9.334405276761945</v>
       </c>
       <c r="M2">
-        <v>98.92711265211116</v>
+        <v>60.06474090040093</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.73900625240877</v>
+        <v>24.22361037799299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.246828649527726</v>
+        <v>11.39707426622343</v>
       </c>
       <c r="D3">
-        <v>3.245204420912805</v>
+        <v>8.097584704228877</v>
       </c>
       <c r="E3">
-        <v>9.067648799794883</v>
+        <v>12.85661749350699</v>
       </c>
       <c r="F3">
-        <v>12.35749245570197</v>
+        <v>31.57657441623798</v>
       </c>
       <c r="G3">
-        <v>17.85011923432004</v>
+        <v>33.78608575261823</v>
       </c>
       <c r="H3">
-        <v>6.653984379601694</v>
+        <v>15.67401016675538</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.266681379452608</v>
+        <v>9.809711319168132</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.036911455156353</v>
+        <v>9.319941116971309</v>
       </c>
       <c r="M3">
-        <v>91.66156142410918</v>
+        <v>56.68553178440989</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.72783804934048</v>
+        <v>24.50321391722862</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.719538164000621</v>
+        <v>11.51994177451187</v>
       </c>
       <c r="D4">
-        <v>3.394809290638037</v>
+        <v>8.1448388621285</v>
       </c>
       <c r="E4">
-        <v>8.534609582561922</v>
+        <v>12.90128259781346</v>
       </c>
       <c r="F4">
-        <v>12.55510304789074</v>
+        <v>31.85473673523169</v>
       </c>
       <c r="G4">
-        <v>17.28820724455324</v>
+        <v>34.09571533214463</v>
       </c>
       <c r="H4">
-        <v>6.820626509228318</v>
+        <v>15.76893405266173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.853939555929029</v>
+        <v>9.842480319873333</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.613092541641141</v>
+        <v>9.313369814829951</v>
       </c>
       <c r="M4">
-        <v>87.05484867981215</v>
+        <v>54.49502894174223</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.81573913877266</v>
+        <v>24.68466313253831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.910873013486102</v>
+        <v>11.57112780740304</v>
       </c>
       <c r="D5">
-        <v>3.456681999812816</v>
+        <v>8.164565721696498</v>
       </c>
       <c r="E5">
-        <v>8.318839943952874</v>
+        <v>12.92079071278689</v>
       </c>
       <c r="F5">
-        <v>12.67040027440813</v>
+        <v>31.9715078167225</v>
       </c>
       <c r="G5">
-        <v>17.10418695203662</v>
+        <v>34.22698436554189</v>
       </c>
       <c r="H5">
-        <v>6.894906606324431</v>
+        <v>15.80877214921539</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.684022036508562</v>
+        <v>9.856602729104846</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.437458410444242</v>
+        <v>9.311271630682075</v>
       </c>
       <c r="M5">
-        <v>85.13653550642357</v>
+        <v>53.57359655211093</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.87180350068076</v>
+        <v>24.7610427891878</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.942587310317967</v>
+        <v>11.57969486192313</v>
       </c>
       <c r="D6">
-        <v>3.46700640368938</v>
+        <v>8.167869820274408</v>
       </c>
       <c r="E6">
-        <v>8.294692270002612</v>
+        <v>12.92410836281738</v>
       </c>
       <c r="F6">
-        <v>12.69144218096782</v>
+        <v>31.99110333687814</v>
       </c>
       <c r="G6">
-        <v>17.07624646529442</v>
+        <v>34.24908642474099</v>
       </c>
       <c r="H6">
-        <v>6.907591552883274</v>
+        <v>15.81545695253328</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.655686758713306</v>
+        <v>9.858993933993077</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.408104104541239</v>
+        <v>9.310958202948225</v>
       </c>
       <c r="M6">
-        <v>84.81540923120588</v>
+        <v>53.41886529053974</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.88223598099243</v>
+        <v>24.7738722487251</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.722122829816078</v>
+        <v>11.52062755658078</v>
       </c>
       <c r="D7">
-        <v>3.395640261864621</v>
+        <v>8.145102998192659</v>
       </c>
       <c r="E7">
-        <v>8.531694749389866</v>
+        <v>12.90154042647435</v>
       </c>
       <c r="F7">
-        <v>12.55652648411775</v>
+        <v>31.85629774220846</v>
       </c>
       <c r="G7">
-        <v>17.2855478209004</v>
+        <v>34.09746517263132</v>
       </c>
       <c r="H7">
-        <v>6.821604053013493</v>
+        <v>15.7694666473553</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.851655726181953</v>
+        <v>9.842667677864664</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.610736354044785</v>
+        <v>9.313339172522634</v>
       </c>
       <c r="M7">
-        <v>87.02914902413652</v>
+        <v>54.48271827461922</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.81641782280649</v>
+        <v>24.68568337038488</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.735672248171922</v>
+        <v>11.2697584096562</v>
       </c>
       <c r="D8">
-        <v>3.089257123491788</v>
+        <v>8.048762536205411</v>
       </c>
       <c r="E8">
-        <v>9.643773272170982</v>
+        <v>12.81347905067132</v>
       </c>
       <c r="F8">
-        <v>12.28586580307513</v>
+        <v>31.29149642517997</v>
       </c>
       <c r="G8">
-        <v>18.61188244521629</v>
+        <v>33.47335005892062</v>
       </c>
       <c r="H8">
-        <v>6.501662353485528</v>
+        <v>15.57667761163953</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.703011530960334</v>
+        <v>9.777395446170029</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.480648157895292</v>
+        <v>9.328938012267173</v>
       </c>
       <c r="M8">
-        <v>96.44921445603775</v>
+        <v>58.92374672479591</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.7132637028946</v>
+        <v>24.31797758820882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.427163716549637</v>
+        <v>10.81243490247374</v>
       </c>
       <c r="D9">
-        <v>2.546658912815811</v>
+        <v>7.874528925666216</v>
       </c>
       <c r="E9">
-        <v>11.9547961544678</v>
+        <v>12.68359261262298</v>
       </c>
       <c r="F9">
-        <v>14.12324726993374</v>
+        <v>30.29360587845179</v>
       </c>
       <c r="G9">
-        <v>23.38155228593625</v>
+        <v>32.41748880132307</v>
       </c>
       <c r="H9">
-        <v>6.198174773512615</v>
+        <v>15.23534527451741</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.377560437299168</v>
+        <v>9.674321894833009</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.1436941284673</v>
+        <v>9.377901194080787</v>
       </c>
       <c r="M9">
-        <v>114.0319278155948</v>
+        <v>66.70580815806292</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.3054678862067</v>
+        <v>23.67535742620534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.088683019644598</v>
+        <v>10.49701979520897</v>
       </c>
       <c r="D10">
-        <v>3.074299737541667</v>
+        <v>7.755343327099602</v>
       </c>
       <c r="E10">
-        <v>13.85678774529807</v>
+        <v>12.61557513792997</v>
       </c>
       <c r="F10">
-        <v>17.33935463278694</v>
+        <v>29.62897060590287</v>
       </c>
       <c r="G10">
-        <v>27.98693796318551</v>
+        <v>31.75059326612092</v>
       </c>
       <c r="H10">
-        <v>6.783873921548644</v>
+        <v>15.00717455738372</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.69138883914179</v>
+        <v>9.614361794295798</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.40686199783002</v>
+        <v>9.425135823563847</v>
       </c>
       <c r="M10">
-        <v>126.9568971316085</v>
+        <v>71.85057707223395</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.79685658316082</v>
+        <v>23.25238542123691</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.930778977442619</v>
+        <v>10.35787775428549</v>
       </c>
       <c r="D11">
-        <v>3.375003971174029</v>
+        <v>7.703010427678046</v>
       </c>
       <c r="E11">
-        <v>14.81833430609763</v>
+        <v>12.59087794084521</v>
       </c>
       <c r="F11">
-        <v>19.0893361015582</v>
+        <v>29.34189519385657</v>
       </c>
       <c r="G11">
-        <v>30.40579026186585</v>
+        <v>31.47234623074625</v>
       </c>
       <c r="H11">
-        <v>7.360718940256374</v>
+        <v>14.90833543794445</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.33960421491584</v>
+        <v>9.590639462346747</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.01781567495803</v>
+        <v>9.449079015511797</v>
       </c>
       <c r="M11">
-        <v>133.0599308779816</v>
+        <v>74.06606738367849</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.082435316444</v>
+        <v>23.07095783487689</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.268742939845794</v>
+        <v>10.30580282830303</v>
       </c>
       <c r="D12">
-        <v>3.498424918323523</v>
+        <v>7.683462291298127</v>
       </c>
       <c r="E12">
-        <v>15.20434509058103</v>
+        <v>12.582448544228</v>
       </c>
       <c r="F12">
-        <v>19.80509397349701</v>
+        <v>29.2354218610498</v>
       </c>
       <c r="G12">
-        <v>31.38465671830999</v>
+        <v>31.37072898912849</v>
       </c>
       <c r="H12">
-        <v>7.595786231072703</v>
+        <v>14.87162565662956</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.59729086683796</v>
+        <v>9.582178853162594</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.25859835604074</v>
+        <v>9.458499181790277</v>
       </c>
       <c r="M12">
-        <v>135.4371302883012</v>
+        <v>74.88704610621501</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.59973345866857</v>
+        <v>23.00386479723084</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.194950641404047</v>
+        <v>10.31699088671566</v>
       </c>
       <c r="D13">
-        <v>3.471353057292032</v>
+        <v>7.687660389609589</v>
       </c>
       <c r="E13">
-        <v>15.1200486021338</v>
+        <v>12.58422251677146</v>
       </c>
       <c r="F13">
-        <v>19.64828604417919</v>
+        <v>29.25825268152018</v>
       </c>
       <c r="G13">
-        <v>31.17064795065985</v>
+        <v>31.3924451101302</v>
       </c>
       <c r="H13">
-        <v>7.544324070098065</v>
+        <v>14.87949971692834</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.54113420210078</v>
+        <v>9.583977569956712</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.20622373108431</v>
+        <v>9.456454660714048</v>
       </c>
       <c r="M13">
-        <v>134.9214218554756</v>
+        <v>74.7110333033356</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.48676264350997</v>
+        <v>23.01824239293949</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.958146494503364</v>
+        <v>10.35358124432147</v>
       </c>
       <c r="D14">
-        <v>3.384943520922275</v>
+        <v>7.701396806448684</v>
       </c>
       <c r="E14">
-        <v>14.84958739869374</v>
+        <v>12.59016580841146</v>
       </c>
       <c r="F14">
-        <v>19.14705577703894</v>
+        <v>29.33309051642152</v>
       </c>
       <c r="G14">
-        <v>30.48492466950561</v>
+        <v>31.4639101832467</v>
       </c>
       <c r="H14">
-        <v>7.379691309317053</v>
+        <v>14.9053008694523</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.36051911785439</v>
+        <v>9.589932863543007</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.0374018600264</v>
+        <v>9.449846934828251</v>
       </c>
       <c r="M14">
-        <v>133.2539031089009</v>
+        <v>74.1339701438085</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.12431149085354</v>
+        <v>23.06540561100907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.815855566901517</v>
+        <v>10.37607372601351</v>
       </c>
       <c r="D15">
-        <v>3.333373861259413</v>
+        <v>7.709845759785924</v>
       </c>
       <c r="E15">
-        <v>14.68710148805038</v>
+        <v>12.59392718381766</v>
       </c>
       <c r="F15">
-        <v>18.84746116752131</v>
+        <v>29.37922327798881</v>
       </c>
       <c r="G15">
-        <v>30.07377580384817</v>
+        <v>31.50817696832508</v>
       </c>
       <c r="H15">
-        <v>7.281182032528301</v>
+        <v>14.92119855879949</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.25168030294126</v>
+        <v>9.593649048833177</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.93539281555514</v>
+        <v>9.445845539368184</v>
       </c>
       <c r="M15">
-        <v>132.2424950856096</v>
+        <v>73.77816074696398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.90662641164518</v>
+        <v>23.09450499538294</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.035865581647399</v>
+        <v>10.50619964428623</v>
       </c>
       <c r="D16">
-        <v>3.055794608225399</v>
+        <v>7.75880117818213</v>
       </c>
       <c r="E16">
-        <v>13.79646683237389</v>
+        <v>12.61731693265901</v>
       </c>
       <c r="F16">
-        <v>17.23157988259188</v>
+        <v>29.64804228265539</v>
       </c>
       <c r="G16">
-        <v>27.83653146616557</v>
+        <v>31.76929441247578</v>
       </c>
       <c r="H16">
-        <v>6.748226613674905</v>
+        <v>15.01373414488174</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.65040153812934</v>
+        <v>9.615984588841203</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.36796912944189</v>
+        <v>9.423620523227692</v>
       </c>
       <c r="M16">
-        <v>126.5649984993308</v>
+        <v>71.70327403891737</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.71651437102078</v>
+        <v>23.26446570414012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.583045913182518</v>
+        <v>10.58713328474275</v>
       </c>
       <c r="D17">
-        <v>2.89906299338731</v>
+        <v>7.789315238278966</v>
       </c>
       <c r="E17">
-        <v>13.27911605074591</v>
+        <v>12.63328271187635</v>
       </c>
       <c r="F17">
-        <v>16.31971622011881</v>
+        <v>29.81689256728783</v>
       </c>
       <c r="G17">
-        <v>26.5555324690129</v>
+        <v>31.93601134953485</v>
       </c>
       <c r="H17">
-        <v>6.445880443853519</v>
+        <v>15.07177519331852</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.29717345365606</v>
+        <v>9.630604978156612</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.03145602993336</v>
+        <v>9.410615437653231</v>
       </c>
       <c r="M17">
-        <v>123.1576862522816</v>
+        <v>70.39838668958697</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.02993427889271</v>
+        <v>23.37156527686202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.330159580799455</v>
+        <v>10.63409342232396</v>
       </c>
       <c r="D18">
-        <v>2.813129865384019</v>
+        <v>7.80704367764432</v>
       </c>
       <c r="E18">
-        <v>12.9899571420475</v>
+        <v>12.64305202304521</v>
       </c>
       <c r="F18">
-        <v>15.82121211198339</v>
+        <v>29.91544552125617</v>
       </c>
       <c r="G18">
-        <v>25.84783248747788</v>
+        <v>32.03425904352786</v>
       </c>
       <c r="H18">
-        <v>6.279923611842408</v>
+        <v>15.1056250710519</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.09835972249734</v>
+        <v>9.639348028575631</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.84097884582913</v>
+        <v>9.403366415809954</v>
       </c>
       <c r="M18">
-        <v>121.216142254784</v>
+        <v>69.63609378426828</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.64863676806578</v>
+        <v>23.43419811376165</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.245692694837504</v>
+        <v>10.6500638819606</v>
       </c>
       <c r="D19">
-        <v>2.784700570821695</v>
+        <v>7.813076776481825</v>
       </c>
       <c r="E19">
-        <v>12.89332305097191</v>
+        <v>12.64645967402903</v>
       </c>
       <c r="F19">
-        <v>15.65665756943393</v>
+        <v>29.94905911158967</v>
       </c>
       <c r="G19">
-        <v>25.61287782438922</v>
+        <v>32.06792474538113</v>
       </c>
       <c r="H19">
-        <v>6.225016439525826</v>
+        <v>15.11716596319491</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.03168504448203</v>
+        <v>9.642365260412637</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.77692394599927</v>
+        <v>9.400951713294917</v>
       </c>
       <c r="M19">
-        <v>120.5611674252688</v>
+        <v>69.37597647230463</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.52169353833547</v>
+        <v>23.45558087723052</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.630430695785951</v>
+        <v>10.57847547065793</v>
       </c>
       <c r="D20">
-        <v>2.915296622672867</v>
+        <v>7.786048601615897</v>
       </c>
       <c r="E20">
-        <v>13.33327531555091</v>
+        <v>12.63152227685364</v>
       </c>
       <c r="F20">
-        <v>16.41403844997994</v>
+        <v>29.79876939772978</v>
       </c>
       <c r="G20">
-        <v>26.68880061313405</v>
+        <v>31.91801919691418</v>
       </c>
       <c r="H20">
-        <v>6.477222889767985</v>
+        <v>15.06554833496932</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.33429774034152</v>
+        <v>9.629013984987795</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.06693731967817</v>
+        <v>9.411975924874485</v>
       </c>
       <c r="M20">
-        <v>123.5183275515868</v>
+        <v>70.53851113867728</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.10156871996643</v>
+        <v>23.36005732530258</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.027107797348269</v>
+        <v>10.34281714942248</v>
       </c>
       <c r="D21">
-        <v>3.410032937980552</v>
+        <v>7.697354796912818</v>
       </c>
       <c r="E21">
-        <v>14.92834309467447</v>
+        <v>12.58839487097022</v>
       </c>
       <c r="F21">
-        <v>19.2926961910282</v>
+        <v>29.31104781221933</v>
       </c>
       <c r="G21">
-        <v>30.68444053653938</v>
+        <v>31.44281629813695</v>
       </c>
       <c r="H21">
-        <v>7.427550017001411</v>
+        <v>14.89770289976253</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.41318250560684</v>
+        <v>9.588169374646281</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.08668545623717</v>
+        <v>9.451778191757583</v>
       </c>
       <c r="M21">
-        <v>133.7415147601182</v>
+        <v>74.30395555523161</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.22984558071175</v>
+        <v>23.05150869523355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.058471254548666</v>
+        <v>10.19238184567212</v>
       </c>
       <c r="D22">
-        <v>3.79218524861314</v>
+        <v>7.640956489691884</v>
       </c>
       <c r="E22">
-        <v>16.10722763567199</v>
+        <v>12.56559988442284</v>
       </c>
       <c r="F22">
-        <v>21.49790345225917</v>
+        <v>29.00534720985054</v>
       </c>
       <c r="G22">
-        <v>33.681273136028</v>
+        <v>31.15416322600845</v>
       </c>
       <c r="H22">
-        <v>8.150199028273979</v>
+        <v>14.79219681768065</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.19492521486229</v>
+        <v>9.564526355538892</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.8127056689613</v>
+        <v>9.47985116159709</v>
       </c>
       <c r="M22">
-        <v>140.8454964852127</v>
+        <v>76.66010355878564</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.80819680646041</v>
+        <v>22.85925203918506</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.493518676284769</v>
+        <v>10.27234746081052</v>
       </c>
       <c r="D23">
-        <v>3.58129805039188</v>
+        <v>7.670914456221991</v>
       </c>
       <c r="E23">
-        <v>15.4611769805105</v>
+        <v>12.57726432164984</v>
       </c>
       <c r="F23">
-        <v>20.28435760908808</v>
+        <v>29.16729681511723</v>
       </c>
       <c r="G23">
-        <v>32.03732278703445</v>
+        <v>31.30617043971471</v>
       </c>
       <c r="H23">
-        <v>7.752956082886964</v>
+        <v>14.8481219728791</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.76799766007447</v>
+        <v>9.576861980906324</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.41747786419477</v>
+        <v>9.464679568751453</v>
       </c>
       <c r="M23">
-        <v>136.9968212565825</v>
+        <v>75.41217054025105</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.94385708345789</v>
+        <v>22.96099267060961</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.608985275460512</v>
+        <v>10.58238832739492</v>
       </c>
       <c r="D24">
-        <v>2.907944573963599</v>
+        <v>7.787524870117589</v>
       </c>
       <c r="E24">
-        <v>13.30876466345664</v>
+        <v>12.63231633253661</v>
       </c>
       <c r="F24">
-        <v>16.3713159358138</v>
+        <v>29.80695827992677</v>
       </c>
       <c r="G24">
-        <v>26.62846153190912</v>
+        <v>31.92614598412193</v>
       </c>
       <c r="H24">
-        <v>6.463028720891827</v>
+        <v>15.06836199889179</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.31750089639471</v>
+        <v>9.629732222335052</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.05088719116056</v>
+        <v>9.411360139153201</v>
       </c>
       <c r="M24">
-        <v>123.3552297288815</v>
+        <v>70.47519854907537</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.06914151710527</v>
+        <v>23.36525677121083</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.864464073141585</v>
+        <v>10.93249946368272</v>
       </c>
       <c r="D25">
-        <v>2.682592350315997</v>
+        <v>7.920104685381524</v>
       </c>
       <c r="E25">
-        <v>11.30577268263339</v>
+        <v>12.71401423256485</v>
       </c>
       <c r="F25">
-        <v>13.15014635311863</v>
+        <v>30.55165828297515</v>
       </c>
       <c r="G25">
-        <v>21.90835132147149</v>
+        <v>32.68449983413585</v>
       </c>
       <c r="H25">
-        <v>6.232572325651088</v>
+        <v>15.32373168312031</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.917470225109913</v>
+        <v>9.699479920362496</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.69291825561854</v>
+        <v>9.362681346232909</v>
       </c>
       <c r="M25">
-        <v>109.3259765799322</v>
+        <v>64.70077377476073</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.48866768111115</v>
+        <v>23.84067225498913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_219/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11.20414814319263</v>
+        <v>1.463181671187338</v>
       </c>
       <c r="D2">
-        <v>8.023658105252926</v>
+        <v>3.008901135153325</v>
       </c>
       <c r="E2">
-        <v>12.79246775424638</v>
+        <v>9.950810356417382</v>
       </c>
       <c r="F2">
-        <v>31.14583031427596</v>
+        <v>12.30792280365503</v>
       </c>
       <c r="G2">
-        <v>33.31539252836562</v>
+        <v>19.11329357998552</v>
       </c>
       <c r="H2">
-        <v>15.52691948833641</v>
+        <v>6.432634407844513</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.761376319509955</v>
+        <v>7.931941508651745</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.334405276761945</v>
+        <v>8.711710531082369</v>
       </c>
       <c r="M2">
-        <v>60.06474090040093</v>
+        <v>98.92711265211092</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.22361037799299</v>
+        <v>10.73900625240881</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.39707426622343</v>
+        <v>2.246828649527729</v>
       </c>
       <c r="D3">
-        <v>8.097584704228877</v>
+        <v>3.245204420912757</v>
       </c>
       <c r="E3">
-        <v>12.85661749350699</v>
+        <v>9.067648799794895</v>
       </c>
       <c r="F3">
-        <v>31.57657441623798</v>
+        <v>12.35749245570183</v>
       </c>
       <c r="G3">
-        <v>33.78608575261823</v>
+        <v>17.85011923431997</v>
       </c>
       <c r="H3">
-        <v>15.67401016675538</v>
+        <v>6.653984379601639</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.809711319168132</v>
+        <v>7.266681379452668</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.319941116971309</v>
+        <v>8.036911455156369</v>
       </c>
       <c r="M3">
-        <v>56.68553178440989</v>
+        <v>91.66156142410941</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.50321391722862</v>
+        <v>10.72783804934041</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.51994177451187</v>
+        <v>2.719538164000624</v>
       </c>
       <c r="D4">
-        <v>8.1448388621285</v>
+        <v>3.394809290638032</v>
       </c>
       <c r="E4">
-        <v>12.90128259781346</v>
+        <v>8.534609582561947</v>
       </c>
       <c r="F4">
-        <v>31.85473673523169</v>
+        <v>12.55510304789071</v>
       </c>
       <c r="G4">
-        <v>34.09571533214463</v>
+        <v>17.28820724455316</v>
       </c>
       <c r="H4">
-        <v>15.76893405266173</v>
+        <v>6.820626509228266</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.842480319873333</v>
+        <v>6.853939555929026</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.313369814829951</v>
+        <v>7.613092541641129</v>
       </c>
       <c r="M4">
-        <v>54.49502894174223</v>
+        <v>87.05484867981215</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.68466313253831</v>
+        <v>10.81573913877261</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.57112780740304</v>
+        <v>2.91087301348597</v>
       </c>
       <c r="D5">
-        <v>8.164565721696498</v>
+        <v>3.456681999812816</v>
       </c>
       <c r="E5">
-        <v>12.92079071278689</v>
+        <v>8.318839943952934</v>
       </c>
       <c r="F5">
-        <v>31.9715078167225</v>
+        <v>12.67040027440793</v>
       </c>
       <c r="G5">
-        <v>34.22698436554189</v>
+        <v>17.10418695203644</v>
       </c>
       <c r="H5">
-        <v>15.80877214921539</v>
+        <v>6.894906606324349</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.856602729104846</v>
+        <v>6.68402203650857</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.311271630682075</v>
+        <v>7.437458410444271</v>
       </c>
       <c r="M5">
-        <v>53.57359655211093</v>
+        <v>85.13653550642364</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.7610427891878</v>
+        <v>10.87180350068063</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>11.57969486192313</v>
+        <v>2.942587310317969</v>
       </c>
       <c r="D6">
-        <v>8.167869820274408</v>
+        <v>3.467006403689387</v>
       </c>
       <c r="E6">
-        <v>12.92410836281738</v>
+        <v>8.294692270002612</v>
       </c>
       <c r="F6">
-        <v>31.99110333687814</v>
+        <v>12.69144218096766</v>
       </c>
       <c r="G6">
-        <v>34.24908642474099</v>
+        <v>17.07624646529428</v>
       </c>
       <c r="H6">
-        <v>15.81545695253328</v>
+        <v>6.90759155288322</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.858993933993077</v>
+        <v>6.655686758713326</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.310958202948225</v>
+        <v>7.40810410454122</v>
       </c>
       <c r="M6">
-        <v>53.41886529053974</v>
+        <v>84.81540923120593</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.7738722487251</v>
+        <v>10.88223598099228</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.52062755658078</v>
+        <v>2.72212282981621</v>
       </c>
       <c r="D7">
-        <v>8.145102998192659</v>
+        <v>3.395640261864802</v>
       </c>
       <c r="E7">
-        <v>12.90154042647435</v>
+        <v>8.531694749389846</v>
       </c>
       <c r="F7">
-        <v>31.85629774220846</v>
+        <v>12.55652648411787</v>
       </c>
       <c r="G7">
-        <v>34.09746517263132</v>
+        <v>17.2855478209005</v>
       </c>
       <c r="H7">
-        <v>15.7694666473553</v>
+        <v>6.821604053013498</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.842667677864664</v>
+        <v>6.851655726181948</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.313339172522634</v>
+        <v>7.610736354044791</v>
       </c>
       <c r="M7">
-        <v>54.48271827461922</v>
+        <v>87.02914902413654</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.68568337038488</v>
+        <v>10.81641782280657</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.2697584096562</v>
+        <v>1.735672248171791</v>
       </c>
       <c r="D8">
-        <v>8.048762536205411</v>
+        <v>3.089257123491628</v>
       </c>
       <c r="E8">
-        <v>12.81347905067132</v>
+        <v>9.643773272171023</v>
       </c>
       <c r="F8">
-        <v>31.29149642517997</v>
+        <v>12.28586580307511</v>
       </c>
       <c r="G8">
-        <v>33.47335005892062</v>
+        <v>18.6118824452162</v>
       </c>
       <c r="H8">
-        <v>15.57667761163953</v>
+        <v>6.501662353485528</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.777395446170029</v>
+        <v>7.703011530960311</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.328938012267173</v>
+        <v>8.480648157895285</v>
       </c>
       <c r="M8">
-        <v>58.92374672479591</v>
+        <v>96.44921445603785</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.31797758820882</v>
+        <v>10.71326370289464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.81243490247374</v>
+        <v>2.427163716549905</v>
       </c>
       <c r="D9">
-        <v>7.874528925666216</v>
+        <v>2.546658912815782</v>
       </c>
       <c r="E9">
-        <v>12.68359261262298</v>
+        <v>11.95479615446779</v>
       </c>
       <c r="F9">
-        <v>30.29360587845179</v>
+        <v>14.12324726993371</v>
       </c>
       <c r="G9">
-        <v>32.41748880132307</v>
+        <v>23.38155228593618</v>
       </c>
       <c r="H9">
-        <v>15.23534527451741</v>
+        <v>6.198174773512615</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.674321894833009</v>
+        <v>9.377560437299126</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.377901194080787</v>
+        <v>10.14369412846727</v>
       </c>
       <c r="M9">
-        <v>66.70580815806292</v>
+        <v>114.0319278155947</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.67535742620534</v>
+        <v>12.30546788620665</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.49701979520897</v>
+        <v>4.088683019644598</v>
       </c>
       <c r="D10">
-        <v>7.755343327099602</v>
+        <v>3.074299737541706</v>
       </c>
       <c r="E10">
-        <v>12.61557513792997</v>
+        <v>13.85678774529809</v>
       </c>
       <c r="F10">
-        <v>29.62897060590287</v>
+        <v>17.33935463278699</v>
       </c>
       <c r="G10">
-        <v>31.75059326612092</v>
+        <v>27.98693796318551</v>
       </c>
       <c r="H10">
-        <v>15.00717455738372</v>
+        <v>6.783873921548644</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.614361794295798</v>
+        <v>10.69138883914181</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.425135823563847</v>
+        <v>11.40686199783007</v>
       </c>
       <c r="M10">
-        <v>71.85057707223395</v>
+        <v>126.9568971316084</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.25238542123691</v>
+        <v>14.79685658316082</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.35787775428549</v>
+        <v>4.930778977442618</v>
       </c>
       <c r="D11">
-        <v>7.703010427678046</v>
+        <v>3.375003971173979</v>
       </c>
       <c r="E11">
-        <v>12.59087794084521</v>
+        <v>14.81833430609759</v>
       </c>
       <c r="F11">
-        <v>29.34189519385657</v>
+        <v>19.0893361015581</v>
       </c>
       <c r="G11">
-        <v>31.47234623074625</v>
+        <v>30.40579026186583</v>
       </c>
       <c r="H11">
-        <v>14.90833543794445</v>
+        <v>7.360718940256363</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.590639462346747</v>
+        <v>11.33960421491583</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.449079015511797</v>
+        <v>12.01781567495802</v>
       </c>
       <c r="M11">
-        <v>74.06606738367849</v>
+        <v>133.0599308779815</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.07095783487689</v>
+        <v>16.08243531644396</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.30580282830303</v>
+        <v>5.268742939845794</v>
       </c>
       <c r="D12">
-        <v>7.683462291298127</v>
+        <v>3.498424918323636</v>
       </c>
       <c r="E12">
-        <v>12.582448544228</v>
+        <v>15.20434509058116</v>
       </c>
       <c r="F12">
-        <v>29.2354218610498</v>
+        <v>19.80509397349723</v>
       </c>
       <c r="G12">
-        <v>31.37072898912849</v>
+        <v>31.38465671831021</v>
       </c>
       <c r="H12">
-        <v>14.87162565662956</v>
+        <v>7.595786231072778</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.582178853162594</v>
+        <v>11.59729086683801</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.458499181790277</v>
+        <v>12.25859835604083</v>
       </c>
       <c r="M12">
-        <v>74.88704610621501</v>
+        <v>135.4371302883016</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.00386479723084</v>
+        <v>16.59973345866873</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.31699088671566</v>
+        <v>5.194950641403913</v>
       </c>
       <c r="D13">
-        <v>7.687660389609589</v>
+        <v>3.471353057292043</v>
       </c>
       <c r="E13">
-        <v>12.58422251677146</v>
+        <v>15.12004860213368</v>
       </c>
       <c r="F13">
-        <v>29.25825268152018</v>
+        <v>19.6482860441791</v>
       </c>
       <c r="G13">
-        <v>31.3924451101302</v>
+        <v>31.17064795065975</v>
       </c>
       <c r="H13">
-        <v>14.87949971692834</v>
+        <v>7.544324070097981</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.583977569956712</v>
+        <v>11.54113420210069</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.456454660714048</v>
+        <v>12.20622373108425</v>
       </c>
       <c r="M13">
-        <v>74.7110333033356</v>
+        <v>134.9214218554756</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.01824239293949</v>
+        <v>16.48676264350989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.35358124432147</v>
+        <v>4.958146494503769</v>
       </c>
       <c r="D14">
-        <v>7.701396806448684</v>
+        <v>3.384943520922313</v>
       </c>
       <c r="E14">
-        <v>12.59016580841146</v>
+        <v>14.84958739869377</v>
       </c>
       <c r="F14">
-        <v>29.33309051642152</v>
+        <v>19.14705577703936</v>
       </c>
       <c r="G14">
-        <v>31.4639101832467</v>
+        <v>30.48492466950617</v>
       </c>
       <c r="H14">
-        <v>14.9053008694523</v>
+        <v>7.379691309317159</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.589932863543007</v>
+        <v>11.36051911785439</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.449846934828251</v>
+        <v>12.03740186002637</v>
       </c>
       <c r="M14">
-        <v>74.1339701438085</v>
+        <v>133.253903108901</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.06540561100907</v>
+        <v>16.12431149085382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.37607372601351</v>
+        <v>4.815855566901517</v>
       </c>
       <c r="D15">
-        <v>7.709845759785924</v>
+        <v>3.333373861259316</v>
       </c>
       <c r="E15">
-        <v>12.59392718381766</v>
+        <v>14.68710148805027</v>
       </c>
       <c r="F15">
-        <v>29.37922327798881</v>
+        <v>18.84746116752119</v>
       </c>
       <c r="G15">
-        <v>31.50817696832508</v>
+        <v>30.07377580384801</v>
       </c>
       <c r="H15">
-        <v>14.92119855879949</v>
+        <v>7.281182032528255</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.593649048833177</v>
+        <v>11.25168030294121</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.445845539368184</v>
+        <v>11.93539281555508</v>
       </c>
       <c r="M15">
-        <v>73.77816074696398</v>
+        <v>132.2424950856095</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.09450499538294</v>
+        <v>15.90662641164511</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.50619964428623</v>
+        <v>4.03586558164713</v>
       </c>
       <c r="D16">
-        <v>7.75880117818213</v>
+        <v>3.055794608225405</v>
       </c>
       <c r="E16">
-        <v>12.61731693265901</v>
+        <v>13.79646683237384</v>
       </c>
       <c r="F16">
-        <v>29.64804228265539</v>
+        <v>17.23157988259189</v>
       </c>
       <c r="G16">
-        <v>31.76929441247578</v>
+        <v>27.83653146616569</v>
       </c>
       <c r="H16">
-        <v>15.01373414488174</v>
+        <v>6.748226613674935</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.615984588841203</v>
+        <v>10.65040153812933</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.423620523227692</v>
+        <v>11.36796912944187</v>
       </c>
       <c r="M16">
-        <v>71.70327403891737</v>
+        <v>126.5649984993306</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.26446570414012</v>
+        <v>14.71651437102083</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.58713328474275</v>
+        <v>3.583045913182385</v>
       </c>
       <c r="D17">
-        <v>7.789315238278966</v>
+        <v>2.89906299338731</v>
       </c>
       <c r="E17">
-        <v>12.63328271187635</v>
+        <v>13.27911605074588</v>
       </c>
       <c r="F17">
-        <v>29.81689256728783</v>
+        <v>16.31971622011866</v>
       </c>
       <c r="G17">
-        <v>31.93601134953485</v>
+        <v>26.55553246901273</v>
       </c>
       <c r="H17">
-        <v>15.07177519331852</v>
+        <v>6.445880443853444</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.630604978156612</v>
+        <v>10.29717345365599</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.410615437653231</v>
+        <v>11.03145602993337</v>
       </c>
       <c r="M17">
-        <v>70.39838668958697</v>
+        <v>123.1576862522813</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.37156527686202</v>
+        <v>14.02993427889258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.63409342232396</v>
+        <v>3.330159580799724</v>
       </c>
       <c r="D18">
-        <v>7.80704367764432</v>
+        <v>2.81312986538408</v>
       </c>
       <c r="E18">
-        <v>12.64305202304521</v>
+        <v>12.98995714204763</v>
       </c>
       <c r="F18">
-        <v>29.91544552125617</v>
+        <v>15.82121211198347</v>
       </c>
       <c r="G18">
-        <v>32.03425904352786</v>
+        <v>25.847832487478</v>
       </c>
       <c r="H18">
-        <v>15.1056250710519</v>
+        <v>6.279923611842417</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.639348028575631</v>
+        <v>10.09835972249743</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.403366415809954</v>
+        <v>10.84097884582916</v>
       </c>
       <c r="M18">
-        <v>69.63609378426828</v>
+        <v>121.2161422547841</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.43419811376165</v>
+        <v>13.64863676806587</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.6500638819606</v>
+        <v>3.245692694837503</v>
       </c>
       <c r="D19">
-        <v>7.813076776481825</v>
+        <v>2.784700570821659</v>
       </c>
       <c r="E19">
-        <v>12.64645967402903</v>
+        <v>12.89332305097188</v>
       </c>
       <c r="F19">
-        <v>29.94905911158967</v>
+        <v>15.65665756943389</v>
       </c>
       <c r="G19">
-        <v>32.06792474538113</v>
+        <v>25.61287782438921</v>
       </c>
       <c r="H19">
-        <v>15.11716596319491</v>
+        <v>6.225016439525826</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.642365260412637</v>
+        <v>10.03168504448202</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.400951713294917</v>
+        <v>10.77692394599929</v>
       </c>
       <c r="M19">
-        <v>69.37597647230463</v>
+        <v>120.5611674252687</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.45558087723052</v>
+        <v>13.52169353833547</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.57847547065793</v>
+        <v>3.630430695786355</v>
       </c>
       <c r="D20">
-        <v>7.786048601615897</v>
+        <v>2.915296622672929</v>
       </c>
       <c r="E20">
-        <v>12.63152227685364</v>
+        <v>13.3332753155509</v>
       </c>
       <c r="F20">
-        <v>29.79876939772978</v>
+        <v>16.41403844997993</v>
       </c>
       <c r="G20">
-        <v>31.91801919691418</v>
+        <v>26.68880061313402</v>
       </c>
       <c r="H20">
-        <v>15.06554833496932</v>
+        <v>6.477222889767916</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.629013984987795</v>
+        <v>10.33429774034147</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.411975924874485</v>
+        <v>11.06693731967814</v>
       </c>
       <c r="M20">
-        <v>70.53851113867728</v>
+        <v>123.5183275515868</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.36005732530258</v>
+        <v>14.10156871996639</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.34281714942248</v>
+        <v>5.027107797347999</v>
       </c>
       <c r="D21">
-        <v>7.697354796912818</v>
+        <v>3.410032937980513</v>
       </c>
       <c r="E21">
-        <v>12.58839487097022</v>
+        <v>14.92834309467448</v>
       </c>
       <c r="F21">
-        <v>29.31104781221933</v>
+        <v>19.29269619102795</v>
       </c>
       <c r="G21">
-        <v>31.44281629813695</v>
+        <v>30.68444053653905</v>
       </c>
       <c r="H21">
-        <v>14.89770289976253</v>
+        <v>7.42755001700135</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.588169374646281</v>
+        <v>11.41318250560685</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.451778191757583</v>
+        <v>12.08668545623717</v>
       </c>
       <c r="M21">
-        <v>74.30395555523161</v>
+        <v>133.7415147601183</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.05150869523355</v>
+        <v>16.22984558071158</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.19238184567212</v>
+        <v>6.058471254548802</v>
       </c>
       <c r="D22">
-        <v>7.640956489691884</v>
+        <v>3.792185248613277</v>
       </c>
       <c r="E22">
-        <v>12.56559988442284</v>
+        <v>16.10722763567225</v>
       </c>
       <c r="F22">
-        <v>29.00534720985054</v>
+        <v>21.49790345225942</v>
       </c>
       <c r="G22">
-        <v>31.15416322600845</v>
+        <v>33.68127313602835</v>
       </c>
       <c r="H22">
-        <v>14.79219681768065</v>
+        <v>8.150199028274059</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.564526355538892</v>
+        <v>12.19492521486242</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.47985116159709</v>
+        <v>12.81270566896139</v>
       </c>
       <c r="M22">
-        <v>76.66010355878564</v>
+        <v>140.8454964852132</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.85925203918506</v>
+        <v>17.80819680646058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.27234746081052</v>
+        <v>5.493518676284904</v>
       </c>
       <c r="D23">
-        <v>7.670914456221991</v>
+        <v>3.581298050391886</v>
       </c>
       <c r="E23">
-        <v>12.57726432164984</v>
+        <v>15.46117698051048</v>
       </c>
       <c r="F23">
-        <v>29.16729681511723</v>
+        <v>20.28435760908799</v>
       </c>
       <c r="G23">
-        <v>31.30617043971471</v>
+        <v>32.03732278703442</v>
       </c>
       <c r="H23">
-        <v>14.8481219728791</v>
+        <v>7.752956082886921</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.576861980906324</v>
+        <v>11.76799766007447</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.464679568751453</v>
+        <v>12.41747786419474</v>
       </c>
       <c r="M23">
-        <v>75.41217054025105</v>
+        <v>136.9968212565824</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.96099267060961</v>
+        <v>16.94385708345784</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.58238832739492</v>
+        <v>3.608985275460512</v>
       </c>
       <c r="D24">
-        <v>7.787524870117589</v>
+        <v>2.907944573963619</v>
       </c>
       <c r="E24">
-        <v>12.63231633253661</v>
+        <v>13.30876466345658</v>
       </c>
       <c r="F24">
-        <v>29.80695827992677</v>
+        <v>16.37131593581371</v>
       </c>
       <c r="G24">
-        <v>31.92614598412193</v>
+        <v>26.62846153190893</v>
       </c>
       <c r="H24">
-        <v>15.06836199889179</v>
+        <v>6.463028720891782</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.629732222335052</v>
+        <v>10.31750089639466</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.411360139153201</v>
+        <v>11.05088719116058</v>
       </c>
       <c r="M24">
-        <v>70.47519854907537</v>
+        <v>123.3552297288814</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.36525677121083</v>
+        <v>14.06914151710519</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.93249946368272</v>
+        <v>1.864464073141719</v>
       </c>
       <c r="D25">
-        <v>7.920104685381524</v>
+        <v>2.68259235031601</v>
       </c>
       <c r="E25">
-        <v>12.71401423256485</v>
+        <v>11.3057726826334</v>
       </c>
       <c r="F25">
-        <v>30.55165828297515</v>
+        <v>13.15014635311863</v>
       </c>
       <c r="G25">
-        <v>32.68449983413585</v>
+        <v>21.90835132147151</v>
       </c>
       <c r="H25">
-        <v>15.32373168312031</v>
+        <v>6.232572325651053</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.699479920362496</v>
+        <v>8.917470225109895</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.362681346232909</v>
+        <v>9.692918255618542</v>
       </c>
       <c r="M25">
-        <v>64.70077377476073</v>
+        <v>109.3259765799323</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.84067225498913</v>
+        <v>11.48866768111115</v>
       </c>
     </row>
   </sheetData>
